--- a/要件/URL一覧.xlsx
+++ b/要件/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\OneDrive - Mahala.Ms\htdocs\portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BCAD1-CE04-4D4E-B6E9-D8445A931B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2CF1-2077-4BDD-8585-C104DBDE8C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12156" yWindow="1278" windowWidth="6804" windowHeight="10524" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="7326" yWindow="1278" windowWidth="11634" windowHeight="10524" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -780,10 +780,6 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さわわっわわわｗｓｄｔぐひ　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -944,10 +940,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,7 +1243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19.5" x14ac:dyDescent="0.95"/>
@@ -1396,9 +1388,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A12" s="7"/>
@@ -2174,6 +2164,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -2183,12 +2179,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
